--- a/data/user_wealthinfo.xlsx
+++ b/data/user_wealthinfo.xlsx
@@ -7,32 +7,125 @@
     <workbookView xWindow="0" yWindow="75" windowWidth="15075" windowHeight="4455"/>
   </bookViews>
   <sheets>
-    <sheet name="表名" sheetId="1" r:id="rId1"/>
+    <sheet name="params" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>lifenglin</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>主键</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>唯一索引</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>松散索引</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>分片键值</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>外键</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>字段名</t>
-  </si>
-  <si>
-    <t>主键</t>
-  </si>
-  <si>
-    <t>唯一索引</t>
-  </si>
-  <si>
-    <t>松散索引</t>
-  </si>
-  <si>
-    <t>分片键值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sparse_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reference_key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -48,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +156,20 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF323E32"/>
+      <name val="Simsun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,8 +194,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -385,38 +495,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -425,30 +542,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576 E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576 B1:B1048576">
       <formula1>"1"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576 D1:D1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:D1048576">
       <formula1>1</formula1>
       <formula2>20</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>